--- a/INTLINE/data/193/ABS/87520037.xlsx
+++ b/INTLINE/data/193/ABS/87520037.xlsx
@@ -12,62 +12,62 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A83791249A">Data1!$H$1:$H$10,Data1!$H$53:$H$277</definedName>
-    <definedName name="A83791249A_Data">Data1!$H$53:$H$277</definedName>
-    <definedName name="A83791249A_Latest">Data1!$H$277</definedName>
-    <definedName name="A83791465V">Data1!$I$1:$I$10,Data1!$I$53:$I$277</definedName>
-    <definedName name="A83791465V_Data">Data1!$I$53:$I$277</definedName>
-    <definedName name="A83791465V_Latest">Data1!$I$277</definedName>
-    <definedName name="A83791681L">Data1!$B$1:$B$10,Data1!$B$13:$B$277</definedName>
-    <definedName name="A83791681L_Data">Data1!$B$13:$B$277</definedName>
-    <definedName name="A83791681L_Latest">Data1!$B$277</definedName>
-    <definedName name="A83791897X">Data1!$C$1:$C$10,Data1!$C$13:$C$277</definedName>
-    <definedName name="A83791897X_Data">Data1!$C$13:$C$277</definedName>
-    <definedName name="A83791897X_Latest">Data1!$C$277</definedName>
-    <definedName name="A83792113J">Data1!$N$1:$N$10,Data1!$N$53:$N$277</definedName>
-    <definedName name="A83792113J_Data">Data1!$N$53:$N$277</definedName>
-    <definedName name="A83792113J_Latest">Data1!$N$277</definedName>
-    <definedName name="A83792329V">Data1!$O$1:$O$10,Data1!$O$53:$O$277</definedName>
-    <definedName name="A83792329V_Data">Data1!$O$53:$O$277</definedName>
-    <definedName name="A83792329V_Latest">Data1!$O$277</definedName>
-    <definedName name="A83793841X">Data1!$K$1:$K$10,Data1!$K$69:$K$277</definedName>
-    <definedName name="A83793841X_Data">Data1!$K$69:$K$277</definedName>
-    <definedName name="A83793841X_Latest">Data1!$K$277</definedName>
-    <definedName name="A83794057L">Data1!$L$1:$L$10,Data1!$L$129:$L$277</definedName>
-    <definedName name="A83794057L_Data">Data1!$L$129:$L$277</definedName>
-    <definedName name="A83794057L_Latest">Data1!$L$277</definedName>
-    <definedName name="A83794273F">Data1!$E$1:$E$10,Data1!$E$11:$E$277</definedName>
-    <definedName name="A83794273F_Data">Data1!$E$11:$E$277</definedName>
-    <definedName name="A83794273F_Latest">Data1!$E$277</definedName>
-    <definedName name="A83794489T">Data1!$F$1:$F$10,Data1!$F$11:$F$277</definedName>
-    <definedName name="A83794489T_Data">Data1!$F$11:$F$277</definedName>
-    <definedName name="A83794489T_Latest">Data1!$F$277</definedName>
-    <definedName name="A83794705X">Data1!$Q$1:$Q$10,Data1!$Q$69:$Q$277</definedName>
-    <definedName name="A83794705X_Data">Data1!$Q$69:$Q$277</definedName>
-    <definedName name="A83794705X_Latest">Data1!$Q$277</definedName>
-    <definedName name="A83794921T">Data1!$R$1:$R$10,Data1!$R$129:$R$277</definedName>
-    <definedName name="A83794921T_Data">Data1!$R$129:$R$277</definedName>
-    <definedName name="A83794921T_Latest">Data1!$R$277</definedName>
-    <definedName name="A83798953J">Data1!$J$1:$J$10,Data1!$J$129:$J$277</definedName>
-    <definedName name="A83798953J_Data">Data1!$J$129:$J$277</definedName>
-    <definedName name="A83798953J_Latest">Data1!$J$277</definedName>
-    <definedName name="A83799385R">Data1!$D$1:$D$10,Data1!$D$129:$D$277</definedName>
-    <definedName name="A83799385R_Data">Data1!$D$129:$D$277</definedName>
-    <definedName name="A83799385R_Latest">Data1!$D$277</definedName>
-    <definedName name="A83799817J">Data1!$P$1:$P$10,Data1!$P$129:$P$277</definedName>
-    <definedName name="A83799817J_Data">Data1!$P$129:$P$277</definedName>
-    <definedName name="A83799817J_Latest">Data1!$P$277</definedName>
-    <definedName name="A83801545R">Data1!$M$1:$M$10,Data1!$M$129:$M$277</definedName>
-    <definedName name="A83801545R_Data">Data1!$M$129:$M$277</definedName>
-    <definedName name="A83801545R_Latest">Data1!$M$277</definedName>
-    <definedName name="A83801977V">Data1!$G$1:$G$10,Data1!$G$113:$G$277</definedName>
-    <definedName name="A83801977V_Data">Data1!$G$113:$G$277</definedName>
-    <definedName name="A83801977V_Latest">Data1!$G$277</definedName>
-    <definedName name="A83802409R">Data1!$S$1:$S$10,Data1!$S$129:$S$277</definedName>
-    <definedName name="A83802409R_Data">Data1!$S$129:$S$277</definedName>
-    <definedName name="A83802409R_Latest">Data1!$S$277</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$277</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$277</definedName>
+    <definedName name="A83791249A">Data1!$H$1:$H$10,Data1!$H$53:$H$278</definedName>
+    <definedName name="A83791249A_Data">Data1!$H$53:$H$278</definedName>
+    <definedName name="A83791249A_Latest">Data1!$H$278</definedName>
+    <definedName name="A83791465V">Data1!$I$1:$I$10,Data1!$I$53:$I$278</definedName>
+    <definedName name="A83791465V_Data">Data1!$I$53:$I$278</definedName>
+    <definedName name="A83791465V_Latest">Data1!$I$278</definedName>
+    <definedName name="A83791681L">Data1!$B$1:$B$10,Data1!$B$13:$B$278</definedName>
+    <definedName name="A83791681L_Data">Data1!$B$13:$B$278</definedName>
+    <definedName name="A83791681L_Latest">Data1!$B$278</definedName>
+    <definedName name="A83791897X">Data1!$C$1:$C$10,Data1!$C$13:$C$278</definedName>
+    <definedName name="A83791897X_Data">Data1!$C$13:$C$278</definedName>
+    <definedName name="A83791897X_Latest">Data1!$C$278</definedName>
+    <definedName name="A83792113J">Data1!$N$1:$N$10,Data1!$N$53:$N$278</definedName>
+    <definedName name="A83792113J_Data">Data1!$N$53:$N$278</definedName>
+    <definedName name="A83792113J_Latest">Data1!$N$278</definedName>
+    <definedName name="A83792329V">Data1!$O$1:$O$10,Data1!$O$53:$O$278</definedName>
+    <definedName name="A83792329V_Data">Data1!$O$53:$O$278</definedName>
+    <definedName name="A83792329V_Latest">Data1!$O$278</definedName>
+    <definedName name="A83793841X">Data1!$K$1:$K$10,Data1!$K$69:$K$278</definedName>
+    <definedName name="A83793841X_Data">Data1!$K$69:$K$278</definedName>
+    <definedName name="A83793841X_Latest">Data1!$K$278</definedName>
+    <definedName name="A83794057L">Data1!$L$1:$L$10,Data1!$L$129:$L$278</definedName>
+    <definedName name="A83794057L_Data">Data1!$L$129:$L$278</definedName>
+    <definedName name="A83794057L_Latest">Data1!$L$278</definedName>
+    <definedName name="A83794273F">Data1!$E$1:$E$10,Data1!$E$11:$E$278</definedName>
+    <definedName name="A83794273F_Data">Data1!$E$11:$E$278</definedName>
+    <definedName name="A83794273F_Latest">Data1!$E$278</definedName>
+    <definedName name="A83794489T">Data1!$F$1:$F$10,Data1!$F$11:$F$278</definedName>
+    <definedName name="A83794489T_Data">Data1!$F$11:$F$278</definedName>
+    <definedName name="A83794489T_Latest">Data1!$F$278</definedName>
+    <definedName name="A83794705X">Data1!$Q$1:$Q$10,Data1!$Q$69:$Q$278</definedName>
+    <definedName name="A83794705X_Data">Data1!$Q$69:$Q$278</definedName>
+    <definedName name="A83794705X_Latest">Data1!$Q$278</definedName>
+    <definedName name="A83794921T">Data1!$R$1:$R$10,Data1!$R$129:$R$278</definedName>
+    <definedName name="A83794921T_Data">Data1!$R$129:$R$278</definedName>
+    <definedName name="A83794921T_Latest">Data1!$R$278</definedName>
+    <definedName name="A83798953J">Data1!$J$1:$J$10,Data1!$J$129:$J$278</definedName>
+    <definedName name="A83798953J_Data">Data1!$J$129:$J$278</definedName>
+    <definedName name="A83798953J_Latest">Data1!$J$278</definedName>
+    <definedName name="A83799385R">Data1!$D$1:$D$10,Data1!$D$129:$D$278</definedName>
+    <definedName name="A83799385R_Data">Data1!$D$129:$D$278</definedName>
+    <definedName name="A83799385R_Latest">Data1!$D$278</definedName>
+    <definedName name="A83799817J">Data1!$P$1:$P$10,Data1!$P$129:$P$278</definedName>
+    <definedName name="A83799817J_Data">Data1!$P$129:$P$278</definedName>
+    <definedName name="A83799817J_Latest">Data1!$P$278</definedName>
+    <definedName name="A83801545R">Data1!$M$1:$M$10,Data1!$M$129:$M$278</definedName>
+    <definedName name="A83801545R_Data">Data1!$M$129:$M$278</definedName>
+    <definedName name="A83801545R_Latest">Data1!$M$278</definedName>
+    <definedName name="A83801977V">Data1!$G$1:$G$10,Data1!$G$113:$G$278</definedName>
+    <definedName name="A83801977V_Data">Data1!$G$113:$G$278</definedName>
+    <definedName name="A83801977V_Latest">Data1!$G$278</definedName>
+    <definedName name="A83802409R">Data1!$S$1:$S$10,Data1!$S$129:$S$278</definedName>
+    <definedName name="A83802409R_Data">Data1!$S$129:$S$278</definedName>
+    <definedName name="A83802409R_Latest">Data1!$S$278</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$278</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$278</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -14951,6 +14951,84 @@
       </text>
     </comment>
     <comment ref="S277" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N278" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O278" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P278" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q278" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R278" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S278" authorId="0">
       <text>
         <r>
           <rPr>
@@ -15114,7 +15192,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -15820,10 +15898,10 @@
         <v>20333</v>
       </c>
       <c r="G12" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -15852,10 +15930,10 @@
         <v>20333</v>
       </c>
       <c r="G13" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -15884,10 +15962,10 @@
         <v>30926</v>
       </c>
       <c r="G14" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -15916,10 +15994,10 @@
         <v>20149</v>
       </c>
       <c r="G15" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -15948,10 +16026,10 @@
         <v>20149</v>
       </c>
       <c r="G16" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="10">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -15980,10 +16058,10 @@
         <v>29465</v>
       </c>
       <c r="G17" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -16012,10 +16090,10 @@
         <v>23986</v>
       </c>
       <c r="G18" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -16044,10 +16122,10 @@
         <v>23986</v>
       </c>
       <c r="G19" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -16076,10 +16154,10 @@
         <v>30926</v>
       </c>
       <c r="G20" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -16108,10 +16186,10 @@
         <v>25447</v>
       </c>
       <c r="G21" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -16140,10 +16218,10 @@
         <v>30926</v>
       </c>
       <c r="G22" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -16172,10 +16250,10 @@
         <v>30926</v>
       </c>
       <c r="G23" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -16204,10 +16282,10 @@
         <v>23986</v>
       </c>
       <c r="G24" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -16236,10 +16314,10 @@
         <v>23986</v>
       </c>
       <c r="G25" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H25" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -16268,10 +16346,10 @@
         <v>30926</v>
       </c>
       <c r="G26" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H26" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>15</v>
@@ -16300,10 +16378,10 @@
         <v>25447</v>
       </c>
       <c r="G27" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H27" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>15</v>
@@ -16332,10 +16410,10 @@
         <v>30926</v>
       </c>
       <c r="G28" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H28" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>15</v>
@@ -16364,10 +16442,10 @@
         <v>30926</v>
       </c>
       <c r="G29" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H29" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>15</v>
@@ -16420,7 +16498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S277"/>
+  <dimension ref="A1:S278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -16849,58 +16927,58 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="O8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="P8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="Q8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="R8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="S8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -16908,58 +16986,58 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -26872,40 +26950,40 @@
         <v>44440</v>
       </c>
       <c r="B277" s="8">
-        <v>29047</v>
+        <v>28854</v>
       </c>
       <c r="C277" s="8">
-        <v>18102</v>
+        <v>15835</v>
       </c>
       <c r="D277" s="8">
-        <v>47537</v>
+        <v>45076</v>
       </c>
       <c r="E277" s="8">
-        <v>29362</v>
+        <v>29169</v>
       </c>
       <c r="F277" s="8">
-        <v>18288</v>
+        <v>16021</v>
       </c>
       <c r="G277" s="8">
-        <v>48037</v>
+        <v>45577</v>
       </c>
       <c r="H277" s="8">
-        <v>28589</v>
+        <v>28399</v>
       </c>
       <c r="I277" s="8">
-        <v>17726</v>
+        <v>15506</v>
       </c>
       <c r="J277" s="8">
-        <v>46702</v>
+        <v>44292</v>
       </c>
       <c r="K277" s="8">
-        <v>28915</v>
+        <v>28725</v>
       </c>
       <c r="L277" s="8">
-        <v>17912</v>
+        <v>15691</v>
       </c>
       <c r="M277" s="8">
-        <v>47214</v>
+        <v>44804</v>
       </c>
       <c r="N277" s="8"/>
       <c r="O277" s="8"/>
@@ -26913,6 +26991,53 @@
       <c r="Q277" s="8"/>
       <c r="R277" s="8"/>
       <c r="S277" s="8"/>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A278" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B278" s="8">
+        <v>30299</v>
+      </c>
+      <c r="C278" s="8">
+        <v>16163</v>
+      </c>
+      <c r="D278" s="8">
+        <v>46742</v>
+      </c>
+      <c r="E278" s="8">
+        <v>30543</v>
+      </c>
+      <c r="F278" s="8">
+        <v>16709</v>
+      </c>
+      <c r="G278" s="8">
+        <v>47533</v>
+      </c>
+      <c r="H278" s="8">
+        <v>28282</v>
+      </c>
+      <c r="I278" s="8">
+        <v>14671</v>
+      </c>
+      <c r="J278" s="8">
+        <v>43232</v>
+      </c>
+      <c r="K278" s="8">
+        <v>28508</v>
+      </c>
+      <c r="L278" s="8">
+        <v>15217</v>
+      </c>
+      <c r="M278" s="8">
+        <v>44006</v>
+      </c>
+      <c r="N278" s="8"/>
+      <c r="O278" s="8"/>
+      <c r="P278" s="8"/>
+      <c r="Q278" s="8"/>
+      <c r="R278" s="8"/>
+      <c r="S278" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
